--- a/biology/Botanique/Sabal_bermudana/Sabal_bermudana.xlsx
+++ b/biology/Botanique/Sabal_bermudana/Sabal_bermudana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabal bermudana est une espèce de plantes de la famille des Arecaceae (les palmiers) originaire des Bermudes d'où elle porte son nom. Elle appartient au genre Sabal. Elle est réputée paradoxalement pour son excellente résistance au froid.
 Nom commun : Palmier des Bermudes.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stipe : Solitaire, jusqu’à 10 mètres de hauteur et 40 cm de diamètre, de couleur grise. Les bases fendues des anciens pétioles persistent sur le stipe et forment un motif réticulé caractéristique du genre.
 Feuilles : De 15 à 25 feuilles costapalmées, de 1,5 à 2 mètres de large, de couleur bleutée sur le dessus et glauque dessous. Elles se composent de plus de 80 segments rigides, scindés à la base sur la moitié de leur longueur. Le pétiole vert, très robuste, lisse, peut mesurer 2 mètres de longueur.
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique aux Bermudes. On le rencontre aussi bien en sol sec que dans les marais.
 Sabal bermudana est l’une des espèces les plus imposantes du genre, l’une des plus résistantes au froid également. C’est un paradoxe, car il ne rencontre jamais le gel dans son habitat naturel. Mais les Sabal sont des plantes très anciennes, qui vivaient même en Europe à l’ère tertiaire, il y a plus de 15 millions d’années, et Sabal bermudana est apparemment la souche isolée d’une espèce très rustique
@@ -578,7 +594,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sabal bermudana est très résistant au froid. Il tolère des températures négatives de -12 à -14 °C dans de bonnes conditions.
 </t>
